--- a/gameData/shared/Buildings.xlsx
+++ b/gameData/shared/Buildings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6020" yWindow="3300" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="6660" yWindow="2800" windowWidth="12040" windowHeight="11080" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="2" r:id="rId1"/>
@@ -297,7 +297,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="28">
+  <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -312,6 +312,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -352,7 +354,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="28">
+  <cellStyles count="30">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -369,6 +371,7 @@
     <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -378,6 +381,7 @@
     <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -830,7 +834,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/gameData/shared/Buildings.xlsx
+++ b/gameData/shared/Buildings.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="6660" yWindow="2800" windowWidth="12040" windowHeight="11080" tabRatio="883"/>
   </bookViews>
   <sheets>
-    <sheet name="locations" sheetId="2" r:id="rId1"/>
+    <sheet name="buildings" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
@@ -834,7 +834,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B5" sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/gameData/shared/Buildings.xlsx
+++ b/gameData/shared/Buildings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="2460" windowWidth="23120" windowHeight="13760" tabRatio="883"/>
+    <workbookView xWindow="-18320" yWindow="20" windowWidth="13640" windowHeight="15100" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="buildings" sheetId="2" r:id="rId1"/>
@@ -121,89 +121,90 @@
     <t>市政厅</t>
   </si>
   <si>
+    <t>STR_desc</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL_hasHouse</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonEyrie</t>
+  </si>
+  <si>
+    <t>STR_type</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>tradeGuild</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>prison</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>hunterHall</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>trainingGround</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>stable</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>workshop</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源仓库</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>军用帐篷</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>贸易行会</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>监狱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎手大厅</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练营地</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>马厩</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>车间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>学院</t>
-  </si>
-  <si>
-    <t>STR_desc</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOL_hasHouse</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonEyrie</t>
-  </si>
-  <si>
-    <t>STR_type</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>tradeGuild</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>prison</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>hunterHall</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>trainingGround</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>stable</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>workshop</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源仓库</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>军用帐篷</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>贸易行会</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>监狱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>猎手大厅</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>训练营地</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>马厩</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>车间</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -353,7 +354,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -368,6 +369,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -424,7 +431,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="50">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -449,6 +456,9 @@
     <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -466,6 +476,9 @@
     <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -917,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -933,13 +946,13 @@
         <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -950,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -964,7 +977,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -978,7 +991,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -989,10 +1002,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
@@ -1006,7 +1019,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>29</v>
@@ -1020,7 +1033,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>21</v>
@@ -1034,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>22</v>
@@ -1048,7 +1061,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>23</v>
@@ -1062,7 +1075,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>24</v>
@@ -1076,7 +1089,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>25</v>
@@ -1090,7 +1103,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>26</v>
@@ -1104,7 +1117,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>27</v>
@@ -1118,7 +1131,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>28</v>
@@ -1132,7 +1145,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>20</v>
@@ -1146,7 +1159,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>30</v>
@@ -1157,13 +1170,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -1174,7 +1187,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>21</v>
@@ -1188,10 +1201,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -1199,13 +1212,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -1216,10 +1229,10 @@
         <v>5</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -1227,13 +1240,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -1241,13 +1254,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -1255,13 +1268,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -1269,13 +1282,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -1283,13 +1296,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
